--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_21.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>217491.1992424272</v>
+        <v>231217.5573798454</v>
       </c>
     </row>
     <row r="7">
@@ -26347,13 +26349,13 @@
         <v>120036.5755573568</v>
       </c>
       <c r="N2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
       <c r="O2" t="n">
         <v>120036.5755573568</v>
       </c>
       <c r="P2" t="n">
-        <v>120036.5755573567</v>
+        <v>120036.5755573568</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371075</v>
+        <v>-12126.11889371076</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371075</v>
+        <v>-12126.11889371076</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371075</v>
+        <v>-12126.11889371076</v>
       </c>
       <c r="E6" t="n">
-        <v>-70828.06055071135</v>
+        <v>-70828.06055071141</v>
       </c>
       <c r="F6" t="n">
         <v>62271.93944928864</v>
@@ -26549,19 +26551,19 @@
         <v>62271.93944928864</v>
       </c>
       <c r="L6" t="n">
-        <v>62271.93944928866</v>
+        <v>62271.93944928864</v>
       </c>
       <c r="M6" t="n">
-        <v>62271.93944928866</v>
+        <v>62271.93944928864</v>
       </c>
       <c r="N6" t="n">
-        <v>62271.93944928863</v>
+        <v>62271.93944928864</v>
       </c>
       <c r="O6" t="n">
-        <v>62271.93944928866</v>
+        <v>62271.93944928864</v>
       </c>
       <c r="P6" t="n">
-        <v>62271.93944928863</v>
+        <v>62271.93944928864</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231217.5573798454</v>
+        <v>106107.6585823687</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12126.11889371076</v>
+        <v>-27276.79286374552</v>
       </c>
       <c r="C6" t="n">
-        <v>-12126.11889371076</v>
+        <v>-27276.79286374551</v>
       </c>
       <c r="D6" t="n">
-        <v>-12126.11889371076</v>
+        <v>-27276.79286374552</v>
       </c>
       <c r="E6" t="n">
-        <v>-70828.06055071141</v>
+        <v>-85638.07738982531</v>
       </c>
       <c r="F6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="G6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="H6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="I6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="J6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="K6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="L6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="M6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="N6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="O6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
       <c r="P6" t="n">
-        <v>62271.93944928864</v>
+        <v>47461.92261017473</v>
       </c>
     </row>
   </sheetData>
